--- a/Reports/jobspersalary_1.xlsx
+++ b/Reports/jobspersalary_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam\OneDrive\Documents\GitHub\PythonScrapJob\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranc\OneDrive\Documents\GitHub\PythonScrapJob\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12315"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -47,13 +47,7 @@
     <t>Salary (USD)</t>
   </si>
   <si>
-    <t>Jobs</t>
-  </si>
-  <si>
     <t>Jobs Name</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -398,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C1" sqref="C1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,75 +407,39 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1350</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1350</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1350</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1350</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1350</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -489,120 +447,56 @@
         <f>MEDIAN(388,647)</f>
         <v>517.5</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>MEDIAN(388,647)</f>
-        <v>517.5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <v>1350</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>755</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1350</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
         <v>1350</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>755</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>603.83000000000004</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>603.83000000000004</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
         <v>755</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1186</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
         <v>1186</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -611,7 +505,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -619,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -627,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -635,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
